--- a/team_specific_matrix/Southern-N.O._A.xlsx
+++ b/team_specific_matrix/Southern-N.O._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2333333333333333</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6428571428571429</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.3571428571428572</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1363636363636364</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09090909090909091</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1818181818181818</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04545454545454546</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1363636363636364</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.4090909090909091</v>
+        <v>0.4074074074074074</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,13 +793,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0625</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.125</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.125</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="R7">
-        <v>0.125</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S7">
-        <v>0.5625</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05633802816901409</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02816901408450704</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05633802816901409</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1267605633802817</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.04225352112676056</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1830985915492958</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="R8">
-        <v>0.02816901408450704</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="S8">
-        <v>0.4788732394366197</v>
+        <v>0.4380952380952381</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,13 +911,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07317073170731707</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02439024390243903</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1951219512195122</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.07317073170731707</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="R9">
-        <v>0.0975609756097561</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S9">
-        <v>0.5365853658536586</v>
+        <v>0.5217391304347826</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08196721311475409</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.00819672131147541</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08196721311475409</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08196721311475409</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2786885245901639</v>
+        <v>0.2485875706214689</v>
       </c>
       <c r="R10">
-        <v>0.04918032786885246</v>
+        <v>0.03954802259887006</v>
       </c>
       <c r="S10">
-        <v>0.4180327868852459</v>
+        <v>0.423728813559322</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.16</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K11">
-        <v>0.28</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L11">
-        <v>0.36</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8888888888888888</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.1111111111111111</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07692307692307693</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3076923076923077</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.6153846153846154</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07142857142857142</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="I16">
-        <v>0.07142857142857142</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="J16">
-        <v>0.5</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07142857142857142</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2857142857142857</v>
+        <v>0.2173913043478261</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01818181818181818</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1636363636363636</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="I17">
-        <v>0.2181818181818182</v>
+        <v>0.1710526315789474</v>
       </c>
       <c r="J17">
-        <v>0.2727272727272727</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="K17">
-        <v>0.05454545454545454</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01818181818181818</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.01818181818181818</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.2363636363636364</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I18">
-        <v>0.2142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="J18">
-        <v>0.2857142857142857</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.3571428571428572</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01530612244897959</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.3061224489795918</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="I19">
-        <v>0.1275510204081633</v>
+        <v>0.1098484848484848</v>
       </c>
       <c r="J19">
-        <v>0.2653061224489796</v>
+        <v>0.2689393939393939</v>
       </c>
       <c r="K19">
-        <v>0.0663265306122449</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03571428571428571</v>
+        <v>0.02651515151515152</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.02040816326530612</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.163265306122449</v>
+        <v>0.1553030303030303</v>
       </c>
     </row>
   </sheetData>
